--- a/artfynd/Kläpptjärnen artfynd.xlsx
+++ b/artfynd/Kläpptjärnen artfynd.xlsx
@@ -1025,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>87755103</v>
+        <v>89046266</v>
       </c>
       <c r="B5" t="n">
-        <v>92529</v>
+        <v>92560</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1036,37 +1036,43 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon fuligineoalbus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+          <t>(J.C.Schmidt) Baird</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Blåberget, Ång</t>
+          <t>Blåberget, SO om, S om Snottertjärnen, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>689795</v>
+        <v>689292</v>
       </c>
       <c r="R5" t="n">
-        <v>7093764</v>
+        <v>7093013</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1093,12 +1099,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-08-23</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-08-23</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1107,19 +1113,23 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>150-årig gles sandtallskog, i stigkant</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
@@ -1130,10 +1140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89046266</v>
+        <v>87755103</v>
       </c>
       <c r="B6" t="n">
-        <v>92560</v>
+        <v>92529</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1141,43 +1151,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellodon fuligineoalbus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(J.C.Schmidt) Baird</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Blåberget, SO om, S om Snottertjärnen, Ång</t>
+          <t>Blåberget, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>689292</v>
+        <v>689795</v>
       </c>
       <c r="R6" t="n">
-        <v>7093013</v>
+        <v>7093764</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1204,12 +1208,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1218,23 +1222,19 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>150-årig gles sandtallskog, i stigkant</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
@@ -1350,54 +1350,48 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89046263</v>
+        <v>96971940</v>
       </c>
       <c r="B8" t="n">
-        <v>90001</v>
+        <v>91265</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6276</v>
+        <v>5442</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Blåberget, SO om, S om Snottertjärnen, Ång</t>
+          <t>Blåberget, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>689467</v>
+        <v>689265</v>
       </c>
       <c r="R8" t="n">
-        <v>7093174</v>
+        <v>7094450</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1424,12 +1418,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1438,23 +1432,19 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>150-årig sandtallskog, i västsluttning</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
@@ -1465,48 +1455,54 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96971940</v>
+        <v>89046263</v>
       </c>
       <c r="B9" t="n">
-        <v>91265</v>
+        <v>90001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5442</v>
+        <v>6276</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Blåberget, Ång</t>
+          <t>Blåberget, SO om, S om Snottertjärnen, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>689265</v>
+        <v>689467</v>
       </c>
       <c r="R9" t="n">
-        <v>7094450</v>
+        <v>7093174</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1533,12 +1529,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1547,19 +1543,23 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>150-årig sandtallskog, i västsluttning</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
@@ -2010,48 +2010,54 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96972031</v>
+        <v>89046280</v>
       </c>
       <c r="B14" t="n">
-        <v>92535</v>
+        <v>89979</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>1596</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+          <t>(Fr.) Quél.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Blåberget, Ång</t>
+          <t>Blåberget, SO om, öster om Snottertjärnen, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>689135</v>
+        <v>689517</v>
       </c>
       <c r="R14" t="n">
-        <v>7094668</v>
+        <v>7093383</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2078,12 +2084,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2092,19 +2098,23 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>150-årig sandtallskog, i renbetad nordvästsluttning</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2115,10 +2125,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>89046280</v>
+        <v>89046281</v>
       </c>
       <c r="B15" t="n">
-        <v>89979</v>
+        <v>90001</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2126,21 +2136,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1596</v>
+        <v>6276</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2159,10 +2169,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>689517</v>
+        <v>689520</v>
       </c>
       <c r="R15" t="n">
-        <v>7093383</v>
+        <v>7093411</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2208,7 +2218,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>150-årig sandtallskog, i renbetad nordvästsluttning</t>
+          <t>150-årig sandtallskog, i renbetad västsluttning</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2230,54 +2240,48 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>89046281</v>
+        <v>96972031</v>
       </c>
       <c r="B16" t="n">
-        <v>90001</v>
+        <v>92535</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Blåberget, SO om, öster om Snottertjärnen, Ång</t>
+          <t>Blåberget, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>689520</v>
+        <v>689135</v>
       </c>
       <c r="R16" t="n">
-        <v>7093411</v>
+        <v>7094668</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2304,12 +2308,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2318,23 +2322,19 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>150-årig sandtallskog, i renbetad västsluttning</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -3146,32 +3146,32 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>89046275</v>
+        <v>89046277</v>
       </c>
       <c r="B24" t="n">
-        <v>90749</v>
+        <v>90001</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>256703</v>
+        <v>6276</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -3190,10 +3190,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>689460</v>
+        <v>689500</v>
       </c>
       <c r="R24" t="n">
-        <v>7093210</v>
+        <v>7093337</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3234,13 +3234,12 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>150-årig sandtallskog, i renbetad nordvästsluttning</t>
+          <t>150-årig sandtallskog, i renbetad västsluttning</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3262,48 +3261,54 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>87755147</v>
+        <v>89046275</v>
       </c>
       <c r="B25" t="n">
-        <v>92527</v>
+        <v>90749</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4361</v>
+        <v>256703</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Blåberget, Ång</t>
+          <t>Blåberget, SO om, öster om Snottertjärnen, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>689819</v>
+        <v>689460</v>
       </c>
       <c r="R25" t="n">
-        <v>7093761</v>
+        <v>7093210</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3330,12 +3335,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2020-08-23</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2020-08-23</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3348,15 +3353,20 @@
       <c r="AG25" t="b">
         <v>0</v>
       </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>150-årig sandtallskog, i renbetad nordvästsluttning</t>
+        </is>
+      </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
@@ -3367,54 +3377,48 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>89046277</v>
+        <v>87755147</v>
       </c>
       <c r="B26" t="n">
-        <v>90001</v>
+        <v>92527</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Blåberget, SO om, öster om Snottertjärnen, Ång</t>
+          <t>Blåberget, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>689500</v>
+        <v>689819</v>
       </c>
       <c r="R26" t="n">
-        <v>7093337</v>
+        <v>7093761</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3441,12 +3445,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3455,23 +3459,19 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>150-årig sandtallskog, i renbetad västsluttning</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">

--- a/artfynd/Kläpptjärnen artfynd.xlsx
+++ b/artfynd/Kläpptjärnen artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89046272</v>
+        <v>89046267</v>
       </c>
       <c r="B2" t="n">
-        <v>92551</v>
+        <v>92529</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -720,14 +720,14 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Blåberget, SO om, öster om Snottertjärnen, Ång</t>
+          <t>Blåberget, 1,6 km om toppen, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>689430</v>
+        <v>689819</v>
       </c>
       <c r="R2" t="n">
-        <v>7093353</v>
+        <v>7093805</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -773,7 +773,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>150-årig sandtallskog, i renbetad västsluttning</t>
+          <t>140-årig sandtallskog</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -910,10 +910,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89046267</v>
+        <v>89046272</v>
       </c>
       <c r="B4" t="n">
-        <v>92529</v>
+        <v>92551</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,21 +921,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -950,14 +950,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Blåberget, 1,6 km om toppen, Ång</t>
+          <t>Blåberget, SO om, öster om Snottertjärnen, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>689819</v>
+        <v>689430</v>
       </c>
       <c r="R4" t="n">
-        <v>7093805</v>
+        <v>7093353</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>140-årig sandtallskog</t>
+          <t>150-årig sandtallskog, i renbetad västsluttning</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1350,48 +1350,54 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96971940</v>
+        <v>89046263</v>
       </c>
       <c r="B8" t="n">
-        <v>91265</v>
+        <v>90001</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5442</v>
+        <v>6276</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Blåberget, Ång</t>
+          <t>Blåberget, SO om, S om Snottertjärnen, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>689265</v>
+        <v>689467</v>
       </c>
       <c r="R8" t="n">
-        <v>7094450</v>
+        <v>7093174</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1418,12 +1424,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1432,19 +1438,23 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>150-årig sandtallskog, i västsluttning</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
@@ -1455,54 +1465,48 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>89046263</v>
+        <v>96971940</v>
       </c>
       <c r="B9" t="n">
-        <v>90001</v>
+        <v>91265</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6276</v>
+        <v>5442</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Blåberget, SO om, S om Snottertjärnen, Ång</t>
+          <t>Blåberget, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>689467</v>
+        <v>689265</v>
       </c>
       <c r="R9" t="n">
-        <v>7093174</v>
+        <v>7094450</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1529,12 +1533,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1543,23 +1547,19 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>150-årig sandtallskog, i västsluttning</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
@@ -1570,10 +1570,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>87755085</v>
+        <v>96972035</v>
       </c>
       <c r="B10" t="n">
-        <v>78647</v>
+        <v>90283</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,21 +1581,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>353</v>
+        <v>1962</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>689857</v>
+        <v>689061</v>
       </c>
       <c r="R10" t="n">
-        <v>7093888</v>
+        <v>7094549</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1638,12 +1638,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2020-08-23</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2020-08-23</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1675,10 +1675,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96972035</v>
+        <v>87755085</v>
       </c>
       <c r="B11" t="n">
-        <v>90283</v>
+        <v>78647</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1686,21 +1686,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1962</v>
+        <v>353</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>689061</v>
+        <v>689857</v>
       </c>
       <c r="R11" t="n">
-        <v>7094549</v>
+        <v>7093888</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1743,12 +1743,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2010,54 +2010,48 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>89046280</v>
+        <v>96972031</v>
       </c>
       <c r="B14" t="n">
-        <v>89979</v>
+        <v>92535</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1596</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Jättemusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tricholoma colossus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Quél.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Blåberget, SO om, öster om Snottertjärnen, Ång</t>
+          <t>Blåberget, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>689517</v>
+        <v>689135</v>
       </c>
       <c r="R14" t="n">
-        <v>7093383</v>
+        <v>7094668</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2084,12 +2078,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2098,23 +2092,19 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>150-årig sandtallskog, i renbetad nordvästsluttning</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
@@ -2240,48 +2230,54 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>96972031</v>
+        <v>89046280</v>
       </c>
       <c r="B16" t="n">
-        <v>92535</v>
+        <v>89979</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>1596</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Jättemusseron</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma colossus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+          <t>(Fr.) Quél.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Blåberget, Ång</t>
+          <t>Blåberget, SO om, öster om Snottertjärnen, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>689135</v>
+        <v>689517</v>
       </c>
       <c r="R16" t="n">
-        <v>7094668</v>
+        <v>7093383</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2308,12 +2304,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2322,19 +2318,23 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>150-årig sandtallskog, i renbetad nordvästsluttning</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -3031,10 +3031,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>89046262</v>
+        <v>87755147</v>
       </c>
       <c r="B23" t="n">
-        <v>92529</v>
+        <v>92527</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3042,43 +3042,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Blåberget, SO om, S om Snottertjärnen, Ång</t>
+          <t>Blåberget, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>689418</v>
+        <v>689819</v>
       </c>
       <c r="R23" t="n">
-        <v>7093024</v>
+        <v>7093761</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3105,12 +3099,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3119,23 +3113,19 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>150-årig sandtallskog, stigkant i västsluttning</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
@@ -3377,10 +3367,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>87755147</v>
+        <v>89046262</v>
       </c>
       <c r="B26" t="n">
-        <v>92527</v>
+        <v>92529</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3388,37 +3378,43 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Blåberget, Ång</t>
+          <t>Blåberget, SO om, S om Snottertjärnen, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>689819</v>
+        <v>689418</v>
       </c>
       <c r="R26" t="n">
-        <v>7093761</v>
+        <v>7093024</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3445,12 +3441,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2020-08-23</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2020-08-23</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3459,19 +3455,23 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>150-årig sandtallskog, stigkant i västsluttning</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
